--- a/Docs/高先生圖台支援文件/20241219_第三階段驗收/FTIS-ISC-01_資訊系統驗收確認單.v3(Table_Schame).xlsx
+++ b/Docs/高先生圖台支援文件/20241219_第三階段驗收/FTIS-ISC-01_資訊系統驗收確認單.v3(Table_Schame).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\TN-RSW\Docs\高先生圖台支援文件\20241219_第三階段驗收\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0042D4E-AF4D-460D-BA8E-770475EEF9DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2734C4C5-F8FF-418A-9F39-C0FEBEE4AA2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -186,43 +186,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -246,14 +209,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -537,27 +502,27 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.59765625" defaultRowHeight="19" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
     <col min="2" max="2" width="6.69921875" customWidth="1"/>
-    <col min="3" max="3" width="42.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" customWidth="1"/>
     <col min="4" max="4" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.69921875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="19" customHeight="1">
@@ -585,6 +550,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -594,7 +560,7 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -610,7 +576,7 @@
     <row r="5" spans="1:6" ht="19" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -626,7 +592,7 @@
     <row r="6" spans="1:6" ht="19" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -642,7 +608,7 @@
     <row r="7" spans="1:6" ht="19" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -658,7 +624,7 @@
     <row r="8" spans="1:6" ht="19" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
